--- a/Code/Results/Cases/Case_5_99/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_99/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.14654293840696</v>
+        <v>23.15092491234368</v>
       </c>
       <c r="C2">
-        <v>15.44721768289548</v>
+        <v>11.50559536387627</v>
       </c>
       <c r="D2">
-        <v>2.839037149614378</v>
+        <v>3.794202529467144</v>
       </c>
       <c r="E2">
-        <v>6.087854873919333</v>
+        <v>9.520947567715163</v>
       </c>
       <c r="F2">
-        <v>45.05627174287863</v>
+        <v>55.22734134379456</v>
       </c>
       <c r="I2">
-        <v>30.22782491948118</v>
+        <v>39.01110950967205</v>
       </c>
       <c r="J2">
-        <v>6.019210091341488</v>
+        <v>9.626041788798206</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.05270961977555</v>
+        <v>12.0888389967997</v>
       </c>
       <c r="M2">
-        <v>13.41955496891202</v>
+        <v>20.04156972374737</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,34 +462,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.89499340497597</v>
+        <v>22.95528901744782</v>
       </c>
       <c r="C3">
-        <v>14.33179110813602</v>
+        <v>11.18283497767036</v>
       </c>
       <c r="D3">
-        <v>2.658134535738768</v>
+        <v>3.750218158559086</v>
       </c>
       <c r="E3">
-        <v>6.035224552138315</v>
+        <v>9.509481565454852</v>
       </c>
       <c r="F3">
-        <v>43.80346342979499</v>
+        <v>55.09400305996569</v>
       </c>
       <c r="I3">
-        <v>29.68562889675445</v>
+        <v>38.97995808437719</v>
       </c>
       <c r="J3">
-        <v>6.045898037485217</v>
+        <v>9.632950141144278</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.989790923673271</v>
+        <v>12.10803170345059</v>
       </c>
       <c r="M3">
-        <v>12.96364803089464</v>
+        <v>20.03019113898947</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,34 +503,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.10317367365166</v>
+        <v>22.84119477541311</v>
       </c>
       <c r="C4">
-        <v>13.61403577630103</v>
+        <v>10.98399651579462</v>
       </c>
       <c r="D4">
-        <v>2.586417776337973</v>
+        <v>3.722577827539618</v>
       </c>
       <c r="E4">
-        <v>6.003144213676074</v>
+        <v>9.502287124511005</v>
       </c>
       <c r="F4">
-        <v>43.05504150668067</v>
+        <v>55.02314259088016</v>
       </c>
       <c r="I4">
-        <v>29.37086211683532</v>
+        <v>38.96752281961439</v>
       </c>
       <c r="J4">
-        <v>6.06265558546169</v>
+        <v>9.637402168283096</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.95470320250555</v>
+        <v>12.1214953998864</v>
       </c>
       <c r="M4">
-        <v>12.68579227057028</v>
+        <v>20.02737034863706</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,34 +544,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.77488034542111</v>
+        <v>22.79626530066269</v>
       </c>
       <c r="C5">
-        <v>13.31316108893954</v>
+        <v>10.90294522310041</v>
       </c>
       <c r="D5">
-        <v>2.567466528988543</v>
+        <v>3.711157926610631</v>
       </c>
       <c r="E5">
-        <v>5.990111445335476</v>
+        <v>9.499316276164388</v>
       </c>
       <c r="F5">
-        <v>42.75534949138064</v>
+        <v>54.99704266630779</v>
       </c>
       <c r="I5">
-        <v>29.24703229435087</v>
+        <v>38.96413604877577</v>
       </c>
       <c r="J5">
-        <v>6.069581905926809</v>
+        <v>9.639269427259176</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.941278919627105</v>
+        <v>12.12740444659024</v>
       </c>
       <c r="M5">
-        <v>12.57320661576464</v>
+        <v>20.02727080368232</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,34 +585,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.72003706006799</v>
+        <v>22.78890068904964</v>
       </c>
       <c r="C6">
-        <v>13.26269170219242</v>
+        <v>10.88948964561664</v>
       </c>
       <c r="D6">
-        <v>2.564352196783212</v>
+        <v>3.709252315910468</v>
       </c>
       <c r="E6">
-        <v>5.987949276147109</v>
+        <v>9.498820602516908</v>
       </c>
       <c r="F6">
-        <v>42.70590777900354</v>
+        <v>54.99287665089388</v>
       </c>
       <c r="I6">
-        <v>29.22673503005599</v>
+        <v>38.9636751107296</v>
       </c>
       <c r="J6">
-        <v>6.070738021067553</v>
+        <v>9.639582690907353</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.939102130635101</v>
+        <v>12.12841116152009</v>
       </c>
       <c r="M6">
-        <v>12.55455447806728</v>
+        <v>20.02731774869776</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,34 +626,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.09876855600447</v>
+        <v>22.8405824420104</v>
       </c>
       <c r="C7">
-        <v>13.61001215966897</v>
+        <v>10.98290332851904</v>
       </c>
       <c r="D7">
-        <v>2.586159998934837</v>
+        <v>3.722424443200586</v>
       </c>
       <c r="E7">
-        <v>6.002968309945159</v>
+        <v>9.502247217073762</v>
       </c>
       <c r="F7">
-        <v>43.0509782199606</v>
+        <v>55.02277934899325</v>
       </c>
       <c r="I7">
-        <v>29.36917428835485</v>
+        <v>38.96747034289696</v>
       </c>
       <c r="J7">
-        <v>6.062748596198878</v>
+        <v>9.637427135911503</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.954518640670232</v>
+        <v>12.12157338050929</v>
       </c>
       <c r="M7">
-        <v>12.68427112816159</v>
+        <v>20.0273647521921</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,34 +667,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.71998577219408</v>
+        <v>23.08224927401346</v>
       </c>
       <c r="C8">
-        <v>15.06936699556482</v>
+        <v>11.39452909974629</v>
       </c>
       <c r="D8">
-        <v>2.777379384823304</v>
+        <v>3.779170109178914</v>
       </c>
       <c r="E8">
-        <v>6.069647269856656</v>
+        <v>9.517025948582845</v>
       </c>
       <c r="F8">
-        <v>44.62001835948831</v>
+        <v>55.17908666122239</v>
       </c>
       <c r="I8">
-        <v>30.03703616681406</v>
+        <v>38.99897865775939</v>
       </c>
       <c r="J8">
-        <v>6.028337694305231</v>
+        <v>9.628380236185247</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.030269233629638</v>
+        <v>12.09510823779843</v>
       </c>
       <c r="M8">
-        <v>13.26199657317411</v>
+        <v>20.03678343407821</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,34 +708,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.70664909642031</v>
+        <v>23.6016693133274</v>
       </c>
       <c r="C9">
-        <v>17.67650649982427</v>
+        <v>12.19052311084947</v>
       </c>
       <c r="D9">
-        <v>3.210478777087418</v>
+        <v>3.88528679116581</v>
       </c>
       <c r="E9">
-        <v>6.203225942339423</v>
+        <v>9.54479559237936</v>
       </c>
       <c r="F9">
-        <v>47.86045153008</v>
+        <v>55.57251317239259</v>
       </c>
       <c r="I9">
-        <v>31.49637308574094</v>
+        <v>39.11391978521544</v>
       </c>
       <c r="J9">
-        <v>5.96359673528533</v>
+        <v>9.612300863427416</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.207735819955428</v>
+        <v>12.05652508193655</v>
       </c>
       <c r="M9">
-        <v>14.40685920730919</v>
+        <v>20.08817594831275</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,34 +749,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.87393381781218</v>
+        <v>24.00776550211863</v>
       </c>
       <c r="C10">
-        <v>19.44687635468746</v>
+        <v>12.76112083059053</v>
       </c>
       <c r="D10">
-        <v>3.514642755843713</v>
+        <v>3.959932998069335</v>
       </c>
       <c r="E10">
-        <v>6.304614219692746</v>
+        <v>9.564478105054135</v>
       </c>
       <c r="F10">
-        <v>50.34183664860685</v>
+        <v>55.9137902426783</v>
       </c>
       <c r="I10">
-        <v>32.66845199864112</v>
+        <v>39.23080006627882</v>
       </c>
       <c r="J10">
-        <v>5.91738767377077</v>
+        <v>9.601490567596105</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.356937541882266</v>
+        <v>12.0362816508289</v>
       </c>
       <c r="M10">
-        <v>15.25072043783735</v>
+        <v>20.14579597212305</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,34 +790,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.87057677564915</v>
+        <v>24.19708974942594</v>
       </c>
       <c r="C11">
-        <v>20.22343937449452</v>
+        <v>13.01622907358615</v>
       </c>
       <c r="D11">
-        <v>3.650622675287424</v>
+        <v>3.993136144497773</v>
       </c>
       <c r="E11">
-        <v>6.351848637161107</v>
+        <v>9.573279939765971</v>
       </c>
       <c r="F11">
-        <v>51.49385483382461</v>
+        <v>56.08017240740784</v>
       </c>
       <c r="I11">
-        <v>33.22559747692796</v>
+        <v>39.29100081743071</v>
       </c>
       <c r="J11">
-        <v>5.896582685166658</v>
+        <v>9.596788444409938</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.429194924531586</v>
+        <v>12.02882844033606</v>
       </c>
       <c r="M11">
-        <v>15.63472418805414</v>
+        <v>20.17626483313725</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,34 +831,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.24286386657925</v>
+        <v>24.26937839115227</v>
       </c>
       <c r="C12">
-        <v>20.51362293268319</v>
+        <v>13.11208809076422</v>
       </c>
       <c r="D12">
-        <v>3.701838430292816</v>
+        <v>4.005598000437543</v>
       </c>
       <c r="E12">
-        <v>6.369934969008503</v>
+        <v>9.576591426373795</v>
       </c>
       <c r="F12">
-        <v>51.93363603504672</v>
+        <v>56.14475551287084</v>
       </c>
       <c r="I12">
-        <v>33.44024179705814</v>
+        <v>39.31480525104381</v>
       </c>
       <c r="J12">
-        <v>5.888728210870657</v>
+        <v>9.59503871162662</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.457215686023047</v>
+        <v>12.02625817527576</v>
       </c>
       <c r="M12">
-        <v>15.78014955231867</v>
+        <v>20.18840892065316</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.16290864376718</v>
+        <v>24.25378427610125</v>
       </c>
       <c r="C13">
-        <v>20.45129500775818</v>
+        <v>13.09147781853362</v>
       </c>
       <c r="D13">
-        <v>3.690819340016798</v>
+        <v>4.002919121564775</v>
       </c>
       <c r="E13">
-        <v>6.366030174007934</v>
+        <v>9.575879194047051</v>
       </c>
       <c r="F13">
-        <v>51.83875985722526</v>
+        <v>56.1307766080236</v>
       </c>
       <c r="I13">
-        <v>33.3938473433339</v>
+        <v>39.30963378653571</v>
       </c>
       <c r="J13">
-        <v>5.890418869635256</v>
+        <v>9.595414177547305</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.451151136454167</v>
+        <v>12.0268005215515</v>
       </c>
       <c r="M13">
-        <v>15.74882887327896</v>
+        <v>20.18576661539463</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,34 +913,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.90130615597835</v>
+        <v>24.20302541182339</v>
       </c>
       <c r="C14">
-        <v>20.24738920319352</v>
+        <v>13.02413094271556</v>
       </c>
       <c r="D14">
-        <v>3.654841356028649</v>
+        <v>3.994163639819147</v>
       </c>
       <c r="E14">
-        <v>6.353332359133596</v>
+        <v>9.573552808727669</v>
       </c>
       <c r="F14">
-        <v>51.52996355787604</v>
+        <v>56.08545421861143</v>
       </c>
       <c r="I14">
-        <v>33.24318153004918</v>
+        <v>39.29293904938088</v>
       </c>
       <c r="J14">
-        <v>5.895936056743591</v>
+        <v>9.596643875142908</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.431486837335824</v>
+        <v>12.02861193272624</v>
       </c>
       <c r="M14">
-        <v>15.6466881219285</v>
+        <v>20.17725182201461</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,34 +954,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.74040808704074</v>
+        <v>24.17200979640065</v>
       </c>
       <c r="C15">
-        <v>20.12199337671217</v>
+        <v>12.98277910740375</v>
       </c>
       <c r="D15">
-        <v>3.632769899721239</v>
+        <v>3.988786050405972</v>
       </c>
       <c r="E15">
-        <v>6.345581868849702</v>
+        <v>9.572125028191723</v>
       </c>
       <c r="F15">
-        <v>51.34128492118681</v>
+        <v>56.05789769130693</v>
       </c>
       <c r="I15">
-        <v>33.15137892526297</v>
+        <v>39.28284415740836</v>
       </c>
       <c r="J15">
-        <v>5.899318385115404</v>
+        <v>9.5974011152342</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.419528540138757</v>
+        <v>12.02975429450703</v>
       </c>
       <c r="M15">
-        <v>15.58412576803743</v>
+        <v>20.17211502107259</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,34 +995,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.8080705326708</v>
+        <v>23.99547958540387</v>
       </c>
       <c r="C16">
-        <v>19.39556793396236</v>
+        <v>12.74435009374327</v>
       </c>
       <c r="D16">
-        <v>3.505713545741362</v>
+        <v>3.957747662507968</v>
       </c>
       <c r="E16">
-        <v>6.301552983468449</v>
+        <v>9.563899851050408</v>
       </c>
       <c r="F16">
-        <v>50.26703173230764</v>
+        <v>55.90313888491525</v>
       </c>
       <c r="I16">
-        <v>32.63254129853414</v>
+        <v>39.22700702818636</v>
       </c>
       <c r="J16">
-        <v>5.918751079847246</v>
+        <v>9.60180218800358</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.352305877533369</v>
+        <v>12.03680403421939</v>
       </c>
       <c r="M16">
-        <v>15.22562619037742</v>
+        <v>20.14388992814114</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,34 +1036,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.22672635675559</v>
+        <v>23.88831391870139</v>
       </c>
       <c r="C17">
-        <v>18.94272764286105</v>
+        <v>12.59686267898418</v>
       </c>
       <c r="D17">
-        <v>3.427201181894473</v>
+        <v>3.938511347709261</v>
       </c>
       <c r="E17">
-        <v>6.27485402018158</v>
+        <v>9.558815264698611</v>
       </c>
       <c r="F17">
-        <v>49.61407345209073</v>
+        <v>55.81103520902251</v>
       </c>
       <c r="I17">
-        <v>32.32053274202462</v>
+        <v>39.19455156808107</v>
       </c>
       <c r="J17">
-        <v>5.930722842636152</v>
+        <v>9.604557211272645</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.312208592857987</v>
+        <v>12.04157824250368</v>
       </c>
       <c r="M17">
-        <v>15.00571674846421</v>
+        <v>20.12766105319305</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,34 +1077,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.88883057448108</v>
+        <v>23.82711090997141</v>
       </c>
       <c r="C18">
-        <v>18.67953909511868</v>
+        <v>12.51161766420592</v>
       </c>
       <c r="D18">
-        <v>3.381813793504024</v>
+        <v>3.927376355882862</v>
       </c>
       <c r="E18">
-        <v>6.259599481043851</v>
+        <v>9.555876437947482</v>
       </c>
       <c r="F18">
-        <v>49.24067831862299</v>
+        <v>55.75910909734078</v>
       </c>
       <c r="I18">
-        <v>32.14331379842906</v>
+        <v>39.17654613508572</v>
       </c>
       <c r="J18">
-        <v>5.93762945731027</v>
+        <v>9.606162122912108</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.289556522193615</v>
+        <v>12.0444895128244</v>
       </c>
       <c r="M18">
-        <v>14.87924126271777</v>
+        <v>20.11872774095447</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,34 +1118,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.7738135584169</v>
+        <v>23.80646542549495</v>
       </c>
       <c r="C19">
-        <v>18.58995240856154</v>
+        <v>12.48268734834905</v>
       </c>
       <c r="D19">
-        <v>3.366405208010242</v>
+        <v>3.923594178510973</v>
       </c>
       <c r="E19">
-        <v>6.25445095980435</v>
+        <v>9.554878936608208</v>
       </c>
       <c r="F19">
-        <v>49.11462111166181</v>
+        <v>55.74170872475426</v>
       </c>
       <c r="I19">
-        <v>32.08368917361685</v>
+        <v>39.17056360546838</v>
       </c>
       <c r="J19">
-        <v>5.939971690690841</v>
+        <v>9.606709008231482</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.281956695811183</v>
+        <v>12.04550361456421</v>
       </c>
       <c r="M19">
-        <v>14.83642134582984</v>
+        <v>20.1157721381437</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,34 +1159,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.28897439464399</v>
+        <v>23.89967724139788</v>
       </c>
       <c r="C20">
-        <v>18.99121373451034</v>
+        <v>12.61260661028989</v>
       </c>
       <c r="D20">
-        <v>3.435582229306369</v>
+        <v>3.940566433383272</v>
       </c>
       <c r="E20">
-        <v>6.277685345196413</v>
+        <v>9.559358006468573</v>
       </c>
       <c r="F20">
-        <v>49.68335632374647</v>
+        <v>55.82073134494188</v>
       </c>
       <c r="I20">
-        <v>32.35351327225339</v>
+        <v>39.19793800475946</v>
       </c>
       <c r="J20">
-        <v>5.929446327175205</v>
+        <v>9.604261834851128</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.316434309252952</v>
+        <v>12.04105291727878</v>
       </c>
       <c r="M20">
-        <v>15.02912552946435</v>
+        <v>20.12934717304801</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,34 +1200,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.97828199467331</v>
+        <v>24.21791886977618</v>
       </c>
       <c r="C21">
-        <v>20.30738448089863</v>
+        <v>13.0439333497054</v>
       </c>
       <c r="D21">
-        <v>3.665415892909474</v>
+        <v>3.996738385848695</v>
       </c>
       <c r="E21">
-        <v>6.357056248627817</v>
+        <v>9.574236708040058</v>
       </c>
       <c r="F21">
-        <v>51.62056650001119</v>
+        <v>56.09872387913176</v>
       </c>
       <c r="I21">
-        <v>33.28733429952491</v>
+        <v>39.29781538123502</v>
       </c>
       <c r="J21">
-        <v>5.894314936222005</v>
+        <v>9.596281846707354</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.437244603888955</v>
+        <v>12.02807303836184</v>
       </c>
       <c r="M21">
-        <v>15.67668892959951</v>
+        <v>20.17973642210976</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,34 +1241,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.05264274739421</v>
+        <v>24.42934997005911</v>
       </c>
       <c r="C22">
-        <v>21.1450840352616</v>
+        <v>13.32144672920962</v>
       </c>
       <c r="D22">
-        <v>3.814050737852261</v>
+        <v>4.03279900477269</v>
       </c>
       <c r="E22">
-        <v>6.41011672764507</v>
+        <v>9.583835150586026</v>
       </c>
       <c r="F22">
-        <v>52.90742130718097</v>
+        <v>56.28959218729861</v>
       </c>
       <c r="I22">
-        <v>33.91913844487956</v>
+        <v>39.36896247380606</v>
       </c>
       <c r="J22">
-        <v>5.871490125416865</v>
+        <v>9.591246272537667</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.520055467746471</v>
+        <v>12.02105919641482</v>
       </c>
       <c r="M22">
-        <v>16.09999486230026</v>
+        <v>20.21619885441316</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,34 +1282,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.48186353035532</v>
+        <v>24.31621165351968</v>
       </c>
       <c r="C23">
-        <v>20.69995239078</v>
+        <v>13.17376554721131</v>
       </c>
       <c r="D23">
-        <v>3.734840704902221</v>
+        <v>4.013613327755492</v>
       </c>
       <c r="E23">
-        <v>6.381673949686315</v>
+        <v>9.578723693156345</v>
       </c>
       <c r="F23">
-        <v>52.21861195294593</v>
+        <v>56.18689011804515</v>
       </c>
       <c r="I23">
-        <v>33.57988188204558</v>
+        <v>39.33045407238141</v>
       </c>
       <c r="J23">
-        <v>5.883662299130927</v>
+        <v>9.593917444844731</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.47549464821143</v>
+        <v>12.02466830684027</v>
       </c>
       <c r="M23">
-        <v>15.87405494110235</v>
+        <v>20.19641729361971</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,34 +1323,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.26084351529616</v>
+        <v>23.89453860763701</v>
       </c>
       <c r="C24">
-        <v>18.96930205170865</v>
+        <v>12.60549018052612</v>
       </c>
       <c r="D24">
-        <v>3.431793940015989</v>
+        <v>3.939637564949235</v>
       </c>
       <c r="E24">
-        <v>6.276405010008711</v>
+        <v>9.559112681619045</v>
       </c>
       <c r="F24">
-        <v>49.65202732384434</v>
+        <v>55.81634452590236</v>
       </c>
       <c r="I24">
-        <v>32.3385960660232</v>
+        <v>39.1964049605397</v>
       </c>
       <c r="J24">
-        <v>5.93002336487982</v>
+        <v>9.604395309073276</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.314522617789258</v>
+        <v>12.04128989813198</v>
       </c>
       <c r="M24">
-        <v>15.0185425638645</v>
+        <v>20.12858364160919</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.91999489318583</v>
+        <v>23.45660906970445</v>
       </c>
       <c r="C25">
-        <v>16.9975046830161</v>
+        <v>11.97718198357493</v>
       </c>
       <c r="D25">
-        <v>3.09597041709945</v>
+        <v>3.857149873531789</v>
       </c>
       <c r="E25">
-        <v>6.166641609086644</v>
+        <v>9.537410925461495</v>
       </c>
       <c r="F25">
-        <v>46.96638675090396</v>
+        <v>55.45684425001212</v>
       </c>
       <c r="I25">
-        <v>31.08471660602378</v>
+        <v>39.07712773733582</v>
       </c>
       <c r="J25">
-        <v>5.980848365489556</v>
+        <v>9.616473885024321</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.156513123885273</v>
+        <v>12.06553863070548</v>
       </c>
       <c r="M25">
-        <v>14.09641531681734</v>
+        <v>20.07076742212666</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_99/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_99/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.15092491234368</v>
+        <v>21.146542938407</v>
       </c>
       <c r="C2">
-        <v>11.50559536387627</v>
+        <v>15.44721768289538</v>
       </c>
       <c r="D2">
-        <v>3.794202529467144</v>
+        <v>2.839037149614279</v>
       </c>
       <c r="E2">
-        <v>9.520947567715163</v>
+        <v>6.08785487391927</v>
       </c>
       <c r="F2">
-        <v>55.22734134379456</v>
+        <v>45.05627174287869</v>
       </c>
       <c r="I2">
-        <v>39.01110950967205</v>
+        <v>30.22782491948127</v>
       </c>
       <c r="J2">
-        <v>9.626041788798206</v>
+        <v>6.019210091341487</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.0888389967997</v>
+        <v>7.052709619775552</v>
       </c>
       <c r="M2">
-        <v>20.04156972374737</v>
+        <v>13.41955496891203</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,34 +462,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.95528901744782</v>
+        <v>19.89499340497592</v>
       </c>
       <c r="C3">
-        <v>11.18283497767036</v>
+        <v>14.33179110813612</v>
       </c>
       <c r="D3">
-        <v>3.750218158559086</v>
+        <v>2.65813453573872</v>
       </c>
       <c r="E3">
-        <v>9.509481565454852</v>
+        <v>6.035224552138248</v>
       </c>
       <c r="F3">
-        <v>55.09400305996569</v>
+        <v>43.80346342979448</v>
       </c>
       <c r="I3">
-        <v>38.97995808437719</v>
+        <v>29.68562889675409</v>
       </c>
       <c r="J3">
-        <v>9.632950141144278</v>
+        <v>6.045898037485116</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.10803170345059</v>
+        <v>6.989790923673117</v>
       </c>
       <c r="M3">
-        <v>20.03019113898947</v>
+        <v>12.96364803089448</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,34 +503,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.84119477541311</v>
+        <v>19.1031736736517</v>
       </c>
       <c r="C4">
-        <v>10.98399651579462</v>
+        <v>13.61403577630104</v>
       </c>
       <c r="D4">
-        <v>3.722577827539618</v>
+        <v>2.58641777633801</v>
       </c>
       <c r="E4">
-        <v>9.502287124511005</v>
+        <v>6.003144213676007</v>
       </c>
       <c r="F4">
-        <v>55.02314259088016</v>
+        <v>43.05504150668105</v>
       </c>
       <c r="I4">
-        <v>38.96752281961439</v>
+        <v>29.37086211683561</v>
       </c>
       <c r="J4">
-        <v>9.637402168283096</v>
+        <v>6.062655585461592</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.1214953998864</v>
+        <v>6.95470320250552</v>
       </c>
       <c r="M4">
-        <v>20.02737034863706</v>
+        <v>12.6857922705703</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,34 +544,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.79626530066269</v>
+        <v>18.77488034542118</v>
       </c>
       <c r="C5">
-        <v>10.90294522310041</v>
+        <v>13.31316108893962</v>
       </c>
       <c r="D5">
-        <v>3.711157926610631</v>
+        <v>2.56746652898859</v>
       </c>
       <c r="E5">
-        <v>9.499316276164388</v>
+        <v>5.990111445335477</v>
       </c>
       <c r="F5">
-        <v>54.99704266630779</v>
+        <v>42.75534949138061</v>
       </c>
       <c r="I5">
-        <v>38.96413604877577</v>
+        <v>29.24703229435096</v>
       </c>
       <c r="J5">
-        <v>9.639269427259176</v>
+        <v>6.069581905926873</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.12740444659024</v>
+        <v>6.941278919626994</v>
       </c>
       <c r="M5">
-        <v>20.02727080368232</v>
+        <v>12.57320661576464</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,34 +585,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.78890068904964</v>
+        <v>18.72003706006804</v>
       </c>
       <c r="C6">
-        <v>10.88948964561664</v>
+        <v>13.26269170219243</v>
       </c>
       <c r="D6">
-        <v>3.709252315910468</v>
+        <v>2.5643521967831</v>
       </c>
       <c r="E6">
-        <v>9.498820602516908</v>
+        <v>5.987949276147244</v>
       </c>
       <c r="F6">
-        <v>54.99287665089388</v>
+        <v>42.70590777900391</v>
       </c>
       <c r="I6">
-        <v>38.9636751107296</v>
+        <v>29.22673503005629</v>
       </c>
       <c r="J6">
-        <v>9.639582690907353</v>
+        <v>6.070738021067652</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.12841116152009</v>
+        <v>6.939102130635234</v>
       </c>
       <c r="M6">
-        <v>20.02731774869776</v>
+        <v>12.55455447806739</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,34 +626,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.8405824420104</v>
+        <v>19.0987685560044</v>
       </c>
       <c r="C7">
-        <v>10.98290332851904</v>
+        <v>13.61001215966897</v>
       </c>
       <c r="D7">
-        <v>3.722424443200586</v>
+        <v>2.586159998934843</v>
       </c>
       <c r="E7">
-        <v>9.502247217073762</v>
+        <v>6.002968309945025</v>
       </c>
       <c r="F7">
-        <v>55.02277934899325</v>
+        <v>43.05097821996053</v>
       </c>
       <c r="I7">
-        <v>38.96747034289696</v>
+        <v>29.36917428835469</v>
       </c>
       <c r="J7">
-        <v>9.637427135911503</v>
+        <v>6.06274859619878</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.12157338050929</v>
+        <v>6.954518640670196</v>
       </c>
       <c r="M7">
-        <v>20.0273647521921</v>
+        <v>12.68427112816147</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,34 +667,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.08224927401346</v>
+        <v>20.71998577219408</v>
       </c>
       <c r="C8">
-        <v>11.39452909974629</v>
+        <v>15.06936699556488</v>
       </c>
       <c r="D8">
-        <v>3.779170109178914</v>
+        <v>2.777379384823217</v>
       </c>
       <c r="E8">
-        <v>9.517025948582845</v>
+        <v>6.069647269856654</v>
       </c>
       <c r="F8">
-        <v>55.17908666122239</v>
+        <v>44.62001835948837</v>
       </c>
       <c r="I8">
-        <v>38.99897865775939</v>
+        <v>30.03703616681415</v>
       </c>
       <c r="J8">
-        <v>9.628380236185247</v>
+        <v>6.028337694305301</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.09510823779843</v>
+        <v>7.030269233629588</v>
       </c>
       <c r="M8">
-        <v>20.03678343407821</v>
+        <v>13.26199657317407</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,34 +708,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.6016693133274</v>
+        <v>23.70664909642032</v>
       </c>
       <c r="C9">
-        <v>12.19052311084947</v>
+        <v>17.67650649982408</v>
       </c>
       <c r="D9">
-        <v>3.88528679116581</v>
+        <v>3.210478777087343</v>
       </c>
       <c r="E9">
-        <v>9.54479559237936</v>
+        <v>6.203225942339424</v>
       </c>
       <c r="F9">
-        <v>55.57251317239259</v>
+        <v>47.86045153007993</v>
       </c>
       <c r="I9">
-        <v>39.11391978521544</v>
+        <v>31.4963730857409</v>
       </c>
       <c r="J9">
-        <v>9.612300863427416</v>
+        <v>5.963596735285435</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.05652508193655</v>
+        <v>7.207735819955438</v>
       </c>
       <c r="M9">
-        <v>20.08817594831275</v>
+        <v>14.40685920730917</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,34 +749,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.00776550211863</v>
+        <v>25.87393381781227</v>
       </c>
       <c r="C10">
-        <v>12.76112083059053</v>
+        <v>19.44687635468756</v>
       </c>
       <c r="D10">
-        <v>3.959932998069335</v>
+        <v>3.514642755843737</v>
       </c>
       <c r="E10">
-        <v>9.564478105054135</v>
+        <v>6.304614219692814</v>
       </c>
       <c r="F10">
-        <v>55.9137902426783</v>
+        <v>50.34183664860695</v>
       </c>
       <c r="I10">
-        <v>39.23080006627882</v>
+        <v>32.66845199864117</v>
       </c>
       <c r="J10">
-        <v>9.601490567596105</v>
+        <v>5.917387673770808</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.0362816508289</v>
+        <v>7.356937541882267</v>
       </c>
       <c r="M10">
-        <v>20.14579597212305</v>
+        <v>15.25072043783733</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,34 +790,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.19708974942594</v>
+        <v>26.87057677564912</v>
       </c>
       <c r="C11">
-        <v>13.01622907358615</v>
+        <v>20.22343937449443</v>
       </c>
       <c r="D11">
-        <v>3.993136144497773</v>
+        <v>3.650622675287168</v>
       </c>
       <c r="E11">
-        <v>9.573279939765971</v>
+        <v>6.351848637161043</v>
       </c>
       <c r="F11">
-        <v>56.08017240740784</v>
+        <v>51.49385483382469</v>
       </c>
       <c r="I11">
-        <v>39.29100081743071</v>
+        <v>33.22559747692804</v>
       </c>
       <c r="J11">
-        <v>9.596788444409938</v>
+        <v>5.896582685166754</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.02882844033606</v>
+        <v>7.429194924531632</v>
       </c>
       <c r="M11">
-        <v>20.17626483313725</v>
+        <v>15.63472418805417</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,34 +831,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.26937839115227</v>
+        <v>27.24286386657928</v>
       </c>
       <c r="C12">
-        <v>13.11208809076422</v>
+        <v>20.51362293268329</v>
       </c>
       <c r="D12">
-        <v>4.005598000437543</v>
+        <v>3.701838430292922</v>
       </c>
       <c r="E12">
-        <v>9.576591426373795</v>
+        <v>6.369934969008771</v>
       </c>
       <c r="F12">
-        <v>56.14475551287084</v>
+        <v>51.9336360350467</v>
       </c>
       <c r="I12">
-        <v>39.31480525104381</v>
+        <v>33.44024179705814</v>
       </c>
       <c r="J12">
-        <v>9.59503871162662</v>
+        <v>5.888728210870756</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.02625817527576</v>
+        <v>7.45721568602303</v>
       </c>
       <c r="M12">
-        <v>20.18840892065316</v>
+        <v>15.78014955231867</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.25378427610125</v>
+        <v>27.16290864376728</v>
       </c>
       <c r="C13">
-        <v>13.09147781853362</v>
+        <v>20.45129500775822</v>
       </c>
       <c r="D13">
-        <v>4.002919121564775</v>
+        <v>3.690819340016961</v>
       </c>
       <c r="E13">
-        <v>9.575879194047051</v>
+        <v>6.36603017400807</v>
       </c>
       <c r="F13">
-        <v>56.1307766080236</v>
+        <v>51.83875985722535</v>
       </c>
       <c r="I13">
-        <v>39.30963378653571</v>
+        <v>33.39384734333397</v>
       </c>
       <c r="J13">
-        <v>9.595414177547305</v>
+        <v>5.890418869635355</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.0268005215515</v>
+        <v>7.451151136454206</v>
       </c>
       <c r="M13">
-        <v>20.18576661539463</v>
+        <v>15.74882887327894</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,34 +913,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.20302541182339</v>
+        <v>26.90130615597837</v>
       </c>
       <c r="C14">
-        <v>13.02413094271556</v>
+        <v>20.24738920319358</v>
       </c>
       <c r="D14">
-        <v>3.994163639819147</v>
+        <v>3.654841356028695</v>
       </c>
       <c r="E14">
-        <v>9.573552808727669</v>
+        <v>6.353332359133725</v>
       </c>
       <c r="F14">
-        <v>56.08545421861143</v>
+        <v>51.52996355787604</v>
       </c>
       <c r="I14">
-        <v>39.29293904938088</v>
+        <v>33.24318153004916</v>
       </c>
       <c r="J14">
-        <v>9.596643875142908</v>
+        <v>5.895936056743624</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.02861193272624</v>
+        <v>7.431486837335803</v>
       </c>
       <c r="M14">
-        <v>20.17725182201461</v>
+        <v>15.64668812192848</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,34 +954,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.17200979640065</v>
+        <v>26.74040808704069</v>
       </c>
       <c r="C15">
-        <v>12.98277910740375</v>
+        <v>20.12199337671211</v>
       </c>
       <c r="D15">
-        <v>3.988786050405972</v>
+        <v>3.632769899721252</v>
       </c>
       <c r="E15">
-        <v>9.572125028191723</v>
+        <v>6.345581868849639</v>
       </c>
       <c r="F15">
-        <v>56.05789769130693</v>
+        <v>51.34128492118683</v>
       </c>
       <c r="I15">
-        <v>39.28284415740836</v>
+        <v>33.151378925263</v>
       </c>
       <c r="J15">
-        <v>9.5974011152342</v>
+        <v>5.899318385115406</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.02975429450703</v>
+        <v>7.419528540138791</v>
       </c>
       <c r="M15">
-        <v>20.17211502107259</v>
+        <v>15.58412576803745</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,34 +995,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.99547958540387</v>
+        <v>25.80807053267095</v>
       </c>
       <c r="C16">
-        <v>12.74435009374327</v>
+        <v>19.39556793396252</v>
       </c>
       <c r="D16">
-        <v>3.957747662507968</v>
+        <v>3.505713545741668</v>
       </c>
       <c r="E16">
-        <v>9.563899851050408</v>
+        <v>6.301552983468451</v>
       </c>
       <c r="F16">
-        <v>55.90313888491525</v>
+        <v>50.26703173230757</v>
       </c>
       <c r="I16">
-        <v>39.22700702818636</v>
+        <v>32.63254129853399</v>
       </c>
       <c r="J16">
-        <v>9.60180218800358</v>
+        <v>5.918751079847118</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.03680403421939</v>
+        <v>7.352305877533298</v>
       </c>
       <c r="M16">
-        <v>20.14388992814114</v>
+        <v>15.22562619037732</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,34 +1036,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.88831391870139</v>
+        <v>25.22672635675555</v>
       </c>
       <c r="C17">
-        <v>12.59686267898418</v>
+        <v>18.9427276428612</v>
       </c>
       <c r="D17">
-        <v>3.938511347709261</v>
+        <v>3.427201181894775</v>
       </c>
       <c r="E17">
-        <v>9.558815264698611</v>
+        <v>6.27485402018178</v>
       </c>
       <c r="F17">
-        <v>55.81103520902251</v>
+        <v>49.61407345209094</v>
       </c>
       <c r="I17">
-        <v>39.19455156808107</v>
+        <v>32.32053274202482</v>
       </c>
       <c r="J17">
-        <v>9.604557211272645</v>
+        <v>5.930722842636149</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.04157824250368</v>
+        <v>7.312208592857977</v>
       </c>
       <c r="M17">
-        <v>20.12766105319305</v>
+        <v>15.00571674846423</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,34 +1077,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.82711090997141</v>
+        <v>24.88883057448113</v>
       </c>
       <c r="C18">
-        <v>12.51161766420592</v>
+        <v>18.67953909511889</v>
       </c>
       <c r="D18">
-        <v>3.927376355882862</v>
+        <v>3.381813793504036</v>
       </c>
       <c r="E18">
-        <v>9.555876437947482</v>
+        <v>6.259599481043919</v>
       </c>
       <c r="F18">
-        <v>55.75910909734078</v>
+        <v>49.24067831862287</v>
       </c>
       <c r="I18">
-        <v>39.17654613508572</v>
+        <v>32.14331379842898</v>
       </c>
       <c r="J18">
-        <v>9.606162122912108</v>
+        <v>5.937629457310303</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.0444895128244</v>
+        <v>7.289556522193552</v>
       </c>
       <c r="M18">
-        <v>20.11872774095447</v>
+        <v>14.87924126271771</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,34 +1118,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.80646542549495</v>
+        <v>24.77381355841693</v>
       </c>
       <c r="C19">
-        <v>12.48268734834905</v>
+        <v>18.5899524085615</v>
       </c>
       <c r="D19">
-        <v>3.923594178510973</v>
+        <v>3.366405208010092</v>
       </c>
       <c r="E19">
-        <v>9.554878936608208</v>
+        <v>6.254450959804216</v>
       </c>
       <c r="F19">
-        <v>55.74170872475426</v>
+        <v>49.11462111166158</v>
       </c>
       <c r="I19">
-        <v>39.17056360546838</v>
+        <v>32.08368917361671</v>
       </c>
       <c r="J19">
-        <v>9.606709008231482</v>
+        <v>5.939971690690808</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.04550361456421</v>
+        <v>7.281956695811094</v>
       </c>
       <c r="M19">
-        <v>20.1157721381437</v>
+        <v>14.83642134582981</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,34 +1159,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.89967724139788</v>
+        <v>25.28897439464409</v>
       </c>
       <c r="C20">
-        <v>12.61260661028989</v>
+        <v>18.99121373451031</v>
       </c>
       <c r="D20">
-        <v>3.940566433383272</v>
+        <v>3.435582229306242</v>
       </c>
       <c r="E20">
-        <v>9.559358006468573</v>
+        <v>6.27768534519648</v>
       </c>
       <c r="F20">
-        <v>55.82073134494188</v>
+        <v>49.68335632374631</v>
       </c>
       <c r="I20">
-        <v>39.19793800475946</v>
+        <v>32.35351327225327</v>
       </c>
       <c r="J20">
-        <v>9.604261834851128</v>
+        <v>5.92944632717534</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.04105291727878</v>
+        <v>7.316434309253017</v>
       </c>
       <c r="M20">
-        <v>20.12934717304801</v>
+        <v>15.02912552946431</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,34 +1200,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.21791886977618</v>
+        <v>26.97828199467336</v>
       </c>
       <c r="C21">
-        <v>13.0439333497054</v>
+        <v>20.30738448089867</v>
       </c>
       <c r="D21">
-        <v>3.996738385848695</v>
+        <v>3.665415892909473</v>
       </c>
       <c r="E21">
-        <v>9.574236708040058</v>
+        <v>6.357056248627886</v>
       </c>
       <c r="F21">
-        <v>56.09872387913176</v>
+        <v>51.62056650001129</v>
       </c>
       <c r="I21">
-        <v>39.29781538123502</v>
+        <v>33.28733429952497</v>
       </c>
       <c r="J21">
-        <v>9.596281846707354</v>
+        <v>5.894314936222073</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.02807303836184</v>
+        <v>7.437244603888955</v>
       </c>
       <c r="M21">
-        <v>20.17973642210976</v>
+        <v>15.6766889295995</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,34 +1241,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.42934997005911</v>
+        <v>28.05264274739411</v>
       </c>
       <c r="C22">
-        <v>13.32144672920962</v>
+        <v>21.14508403526171</v>
       </c>
       <c r="D22">
-        <v>4.03279900477269</v>
+        <v>3.814050737852354</v>
       </c>
       <c r="E22">
-        <v>9.583835150586026</v>
+        <v>6.410116727645004</v>
       </c>
       <c r="F22">
-        <v>56.28959218729861</v>
+        <v>52.90742130718093</v>
       </c>
       <c r="I22">
-        <v>39.36896247380606</v>
+        <v>33.91913844487956</v>
       </c>
       <c r="J22">
-        <v>9.591246272537667</v>
+        <v>5.871490125416797</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.02105919641482</v>
+        <v>7.520055467746419</v>
       </c>
       <c r="M22">
-        <v>20.21619885441316</v>
+        <v>16.09999486230027</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,34 +1282,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.31621165351968</v>
+        <v>27.48186353035522</v>
       </c>
       <c r="C23">
-        <v>13.17376554721131</v>
+        <v>20.69995239077998</v>
       </c>
       <c r="D23">
-        <v>4.013613327755492</v>
+        <v>3.734840704902278</v>
       </c>
       <c r="E23">
-        <v>9.578723693156345</v>
+        <v>6.381673949686313</v>
       </c>
       <c r="F23">
-        <v>56.18689011804515</v>
+        <v>52.21861195294603</v>
       </c>
       <c r="I23">
-        <v>39.33045407238141</v>
+        <v>33.57988188204567</v>
       </c>
       <c r="J23">
-        <v>9.593917444844731</v>
+        <v>5.88366229913086</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.02466830684027</v>
+        <v>7.475494648211463</v>
       </c>
       <c r="M23">
-        <v>20.19641729361971</v>
+        <v>15.8740549411024</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,34 +1323,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.89453860763701</v>
+        <v>25.26084351529614</v>
       </c>
       <c r="C24">
-        <v>12.60549018052612</v>
+        <v>18.96930205170854</v>
       </c>
       <c r="D24">
-        <v>3.939637564949235</v>
+        <v>3.431793940015989</v>
       </c>
       <c r="E24">
-        <v>9.559112681619045</v>
+        <v>6.276405010008576</v>
       </c>
       <c r="F24">
-        <v>55.81634452590236</v>
+        <v>49.65202732384453</v>
       </c>
       <c r="I24">
-        <v>39.1964049605397</v>
+        <v>32.33859606602334</v>
       </c>
       <c r="J24">
-        <v>9.604395309073276</v>
+        <v>5.930023364879753</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.04128989813198</v>
+        <v>7.314522617789261</v>
       </c>
       <c r="M24">
-        <v>20.12858364160919</v>
+        <v>15.0185425638645</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.45660906970445</v>
+        <v>22.91999489318581</v>
       </c>
       <c r="C25">
-        <v>11.97718198357493</v>
+        <v>16.99750468301617</v>
       </c>
       <c r="D25">
-        <v>3.857149873531789</v>
+        <v>3.09597041709963</v>
       </c>
       <c r="E25">
-        <v>9.537410925461495</v>
+        <v>6.166641609086638</v>
       </c>
       <c r="F25">
-        <v>55.45684425001212</v>
+        <v>46.96638675090414</v>
       </c>
       <c r="I25">
-        <v>39.07712773733582</v>
+        <v>31.08471660602387</v>
       </c>
       <c r="J25">
-        <v>9.616473885024321</v>
+        <v>5.980848365489527</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.06553863070548</v>
+        <v>7.156513123885223</v>
       </c>
       <c r="M25">
-        <v>20.07076742212666</v>
+        <v>14.0964153168173</v>
       </c>
       <c r="N25">
         <v>0</v>
